--- a/data/2023年第二代美国白蛾防治表.xlsx
+++ b/data/2023年第二代美国白蛾防治表.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="14900"/>
+    <workbookView windowWidth="24750" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$7</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>点位编号</t>
   </si>
@@ -34,26 +34,72 @@
     <t>备注</t>
   </si>
   <si>
-    <t>BY35</t>
-  </si>
-  <si>
-    <t>达富雅园</t>
+    <t>TH2023001</t>
+  </si>
+  <si>
+    <t>玉甫上营村阳光浴室西侧</t>
   </si>
   <si>
     <t>施药</t>
+  </si>
+  <si>
+    <t>TY02</t>
+  </si>
+  <si>
+    <t>牡丹园</t>
+  </si>
+  <si>
+    <t>YF2023001</t>
+  </si>
+  <si>
+    <t>东马各庄路与张采路交叉口</t>
+  </si>
+  <si>
+    <t>MQ2023002</t>
+  </si>
+  <si>
+    <t>小古二路金色映画教育基地</t>
+  </si>
+  <si>
+    <t>MQ2023001</t>
+  </si>
+  <si>
+    <t>景盛北二街融科香雪兰溪</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>HX2023002</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西军路西黄垡村进水闸桥</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,14 +120,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -96,6 +180,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -103,115 +262,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,187 +278,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,11 +472,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,8 +499,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,28 +520,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,17 +550,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,152 +574,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -679,58 +731,67 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
     <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -844,8 +905,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E3" totalsRowShown="0">
-  <autoFilter ref="A1:E3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E7" totalsRowShown="0">
+  <autoFilter ref="A1:E7"/>
   <tableColumns count="5">
     <tableColumn id="1" name="点位编号" dataDxfId="0"/>
     <tableColumn id="2" name="点位名" dataDxfId="1"/>
@@ -1115,21 +1176,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="14.0865384615385" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.2692307692308" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.9134615384615" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.73076923076923" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.73076923076923" style="3"/>
+    <col min="1" max="1" width="14.0909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.2727272727273" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.9090909090909" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.72727272727273" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.72727272727273" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1157,9 +1218,79 @@
         <v>6</v>
       </c>
       <c r="C2" s="2">
-        <v>45075</v>
+        <v>45132</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45127</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45126</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45126</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45126</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45140</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/2023年第二代美国白蛾防治表.xlsx
+++ b/data/2023年第二代美国白蛾防治表.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$16</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>点位编号</t>
   </si>
@@ -87,6 +87,60 @@
       </rPr>
       <t>西军路西黄垡村进水闸桥</t>
     </r>
+  </si>
+  <si>
+    <t>XJ2023005</t>
+  </si>
+  <si>
+    <t>郎西村西北口</t>
+  </si>
+  <si>
+    <t>XJ2023001</t>
+  </si>
+  <si>
+    <t>和合站村西北角武杨路上</t>
+  </si>
+  <si>
+    <t>XJ2023007</t>
+  </si>
+  <si>
+    <t>珺农东合花木里南100米</t>
+  </si>
+  <si>
+    <t>XJ2023003</t>
+  </si>
+  <si>
+    <t>任郎路与朗西南路交叉口南10米</t>
+  </si>
+  <si>
+    <t>XJ2023004</t>
+  </si>
+  <si>
+    <t>沙任路与小老路交叉口西小桥南北两侧</t>
+  </si>
+  <si>
+    <t>XJ2023009</t>
+  </si>
+  <si>
+    <t>马坊路与杜泰路交叉口西200米</t>
+  </si>
+  <si>
+    <t>XJ2023002</t>
+  </si>
+  <si>
+    <t>耿楼村南口耿楼路上</t>
+  </si>
+  <si>
+    <t>XJ2023010</t>
+  </si>
+  <si>
+    <t>北运河大桥西北</t>
+  </si>
+  <si>
+    <t>XJ2023011</t>
+  </si>
+  <si>
+    <t>京杭大运河北岸</t>
   </si>
 </sst>
 </file>
@@ -719,7 +773,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,6 +793,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -905,8 +962,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E7" totalsRowShown="0">
-  <autoFilter ref="A1:E7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:E16" totalsRowShown="0">
+  <autoFilter ref="A1:E16"/>
   <tableColumns count="5">
     <tableColumn id="1" name="点位编号" dataDxfId="0"/>
     <tableColumn id="2" name="点位名" dataDxfId="1"/>
@@ -1176,15 +1233,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.0909090909091" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.2727272727273" style="1" customWidth="1"/>
@@ -1294,6 +1351,132 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45142</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45142</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45142</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45142</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45145</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45145</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45145</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45145</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45145</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
